--- a/Dilutions/Blank_dilution_worksheet.xlsx
+++ b/Dilutions/Blank_dilution_worksheet.xlsx
@@ -1,16 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcarrier/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9BBBC-538D-F145-A871-C88ABBB480B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Gust chamber</t>
   </si>
@@ -72,12 +87,6 @@
     <t>*If more than 10 dilutions were needed for a given tube:</t>
   </si>
   <si>
-    <t xml:space="preserve">      1. Work on your dilution skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      2. Adjust the spreadsheet accordingly (drag down a row to add rows with same format)</t>
-  </si>
-  <si>
     <t>*Concentrations should be lower for tubes with smaller apertures.</t>
   </si>
   <si>
@@ -106,13 +115,16 @@
   </si>
   <si>
     <t>Gust_volumesampled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Adjust the spreadsheet accordingly (drag down a row to add rows with same format)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,6 +387,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -699,14 +719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -725,7 +745,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -770,10 +790,10 @@
         <v>0.5</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -781,10 +801,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -827,7 +847,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="1:14" s="10" customFormat="1" ht="17" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -948,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -986,9 +1006,6 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="E12" s="2">
@@ -1025,6 +1042,9 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="E13" s="2">
@@ -1062,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1101,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1139,9 +1159,6 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="E16" s="2">
@@ -1178,6 +1195,9 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="E17" s="2">
@@ -1215,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1253,12 +1273,9 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1"/>
-    <row r="21" spans="1:14" ht="34" thickBot="1">
+    </row>
+    <row r="20" spans="1:14" ht="17" thickBot="1"/>
+    <row r="21" spans="1:14" ht="35" thickBot="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12" t="s">
